--- a/Results/General-results.xlsx
+++ b/Results/General-results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\RN_CIn_20211\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08740497-8F46-4B48-8622-34743D87CB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFE55CF-2011-42AC-957D-D2DBD1A5D9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-120" windowWidth="18465" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20010" yWindow="-780" windowWidth="19800" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a" sheetId="1" r:id="rId1"/>
     <sheet name="1b" sheetId="2" r:id="rId2"/>
     <sheet name="1c" sheetId="3" r:id="rId3"/>
+    <sheet name="1d" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>MSE</t>
   </si>
@@ -49,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -85,7 +86,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -516,6 +517,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38761</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A44086-DF94-4655-9BCC-6794E77D017C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="104775"/>
+          <a:ext cx="4734586" cy="1962424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257872</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>105038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C398DD6-E1C2-4F72-B877-6EE69ED45B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="2219325"/>
+          <a:ext cx="4991797" cy="1886213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>486500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BEA514-CE5F-4991-80E5-406F16B916CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="4276725"/>
+          <a:ext cx="5191850" cy="1952898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -905,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B10DA6A-3DEA-45BF-85AB-B74C8C150F59}">
   <dimension ref="M2:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,4 +1093,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4751F70-55A0-47C2-A891-6B5AAB1767CE}">
+  <dimension ref="M2:P4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.6646780000000001</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1.5729280000000001</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1.5909770000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.1287160000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.0932569999999999</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1.098036</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>